--- a/ProyectoWeb/3SCRUM/13. PlanificacionSprint2.xlsx
+++ b/ProyectoWeb/3SCRUM/13. PlanificacionSprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39981CF-CD7B-4B2C-BA7E-1094C7156E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCECD0-A657-4D47-8D21-E88DFADD9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>Start Date</t>
   </si>
@@ -232,9 +232,6 @@
     <t>No iniciado</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -283,12 +280,6 @@
     <t>HU1-10</t>
   </si>
   <si>
-    <t>Usuario podrá visualizar la información de cada docente</t>
-  </si>
-  <si>
-    <t>Borrador</t>
-  </si>
-  <si>
     <t>Ingresar información de Eventos</t>
   </si>
   <si>
@@ -308,6 +299,30 @@
   </si>
   <si>
     <t>Intermedia</t>
+  </si>
+  <si>
+    <t>Ingresar información en Banner</t>
+  </si>
+  <si>
+    <t>Usuario podra visualizar propaganda de los eventos</t>
+  </si>
+  <si>
+    <t>Usuario podrá visualizar la información de cada Evento</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario de creación de elemento Docentes</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario de creación de elemento Eventos</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario de creación de elemento Contactos</t>
+  </si>
+  <si>
+    <t>Usuario podrá visualizar la información de cada proyecto y información relacionada</t>
+  </si>
+  <si>
+    <t>En espera de aprobación</t>
   </si>
 </sst>
 </file>
@@ -856,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,8 +916,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -951,7 +964,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -959,150 +975,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1187,6 +1095,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1217,6 +1143,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1256,6 +1200,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1286,6 +1248,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1325,6 +1305,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1358,6 +1356,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1373,6 +1389,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2916,34 +2950,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Target Burn Down]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3214,73 +3248,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="54.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="H2" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -3290,19 +3324,23 @@
         <v>35</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+        <v>68</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>81</v>
+      </c>
       <c r="G3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -3312,35 +3350,43 @@
         <v>35</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.4">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -3349,33 +3395,59 @@
       <c r="C6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="D6" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="80" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3425,16 +3497,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="19" t="s">
@@ -3446,88 +3518,88 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="53">
+      <c r="H9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="51">
         <f>SUM(I4:I8)</f>
         <v>0</v>
       </c>
@@ -3603,74 +3675,74 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="50"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="49"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="53">
+      <c r="B18" s="55"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="51">
         <f>SUM(I13:I17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="H19" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="51">
+      <c r="H19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="49">
         <f>I9+I18</f>
         <v>0</v>
       </c>
@@ -3886,7 +3958,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -3905,7 +3977,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -3924,7 +3996,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -3943,7 +4015,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -3953,23 +4025,23 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="59">
+      <c r="A7" s="57">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59">
+      <c r="C7" s="58"/>
+      <c r="D7" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="57">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
@@ -3981,7 +4053,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
@@ -3999,8 +4071,8 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="59" t="s">
-        <v>64</v>
+      <c r="D9" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
@@ -4019,7 +4091,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11">
@@ -4037,8 +4109,8 @@
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="59" t="s">
-        <v>66</v>
+      <c r="D11" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11">
@@ -4055,9 +4127,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
@@ -4153,7 +4225,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-1.4608695652173913</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4171,7 +4243,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-2.9217391304347826</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4189,7 +4261,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-4.3826086956521735</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4207,7 +4279,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-5.8434782608695652</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4225,7 +4297,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-7.304347826086957</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4243,7 +4315,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-8.765217391304347</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4261,7 +4333,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-10.226086956521739</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4279,7 +4351,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-11.68695652173913</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4297,7 +4369,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-13.147826086956522</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4315,7 +4387,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-14.608695652173914</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4333,7 +4405,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-16.069565217391304</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4350,7 +4422,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-17.530434782608694</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4367,7 +4439,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-18.991304347826087</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4384,7 +4456,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-20.452173913043477</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>
@@ -4401,7 +4473,7 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>-21.913043478260871</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="60">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
         <v>0</v>
       </c>

--- a/ProyectoWeb/3SCRUM/13. PlanificacionSprint2.xlsx
+++ b/ProyectoWeb/3SCRUM/13. PlanificacionSprint2.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCECD0-A657-4D47-8D21-E88DFADD9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A979931E-B8EB-4455-820E-60B6B19B4126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sprint1Info" sheetId="2" r:id="rId3"/>
-    <sheet name="Backlog1Table" sheetId="1" r:id="rId4"/>
-    <sheet name="BurnDown1Table" sheetId="3" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sprint2Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Backlog2Table" sheetId="1" r:id="rId4"/>
+    <sheet name="BurnDown2Table" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="DevRate">Sprint1Info!$B$10</definedName>
+    <definedName name="DevRate">Sprint2Info!$B$10</definedName>
     <definedName name="RemainingHours">SprintBacklog[[#Totals],[Remaining Hours]]</definedName>
-    <definedName name="StartDate">Sprint1Info!$B$2</definedName>
+    <definedName name="StartDate">Sprint2Info!$B$2</definedName>
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
-    <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
+    <definedName name="WorkingDays">Sprint2Info!$B$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
   <si>
     <t>Start Date</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Enter a value for the utilization of the team</t>
   </si>
   <si>
-    <t>HU1</t>
-  </si>
-  <si>
     <t>HU2</t>
   </si>
   <si>
@@ -181,24 +178,12 @@
     <t>estatus</t>
   </si>
   <si>
-    <t>Compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerente </t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Terminado</t>
   </si>
   <si>
-    <t>Agregar un proveedor</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
     <t>Necesito</t>
   </si>
   <si>
@@ -217,87 +202,27 @@
     <t>Estimado</t>
   </si>
   <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>Agregar un proveedor a la base de datos</t>
-  </si>
-  <si>
-    <t>HU11</t>
-  </si>
-  <si>
-    <t>HU12</t>
-  </si>
-  <si>
-    <t>No iniciado</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>HU1-1</t>
-  </si>
-  <si>
-    <t>HU1-2</t>
-  </si>
-  <si>
-    <t>HU1-3</t>
-  </si>
-  <si>
-    <t>HU1-4</t>
-  </si>
-  <si>
-    <t>HU1-5</t>
-  </si>
-  <si>
-    <t>Consulta</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>consultar información específica</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar la información de cada docente </t>
-  </si>
-  <si>
-    <t>HU1-6</t>
-  </si>
-  <si>
-    <t>HU1-7</t>
-  </si>
-  <si>
-    <t>HU1-8</t>
-  </si>
-  <si>
-    <t>HU1-9</t>
-  </si>
-  <si>
-    <t>HU1-10</t>
-  </si>
-  <si>
     <t>Ingresar información de Eventos</t>
   </si>
   <si>
     <t>Ingresar información de Proyectos</t>
   </si>
   <si>
-    <t>Ingresar información de Contactos</t>
-  </si>
-  <si>
     <t>Video ingreso Docente</t>
   </si>
   <si>
     <t>Video ingreso Eventos</t>
   </si>
   <si>
-    <t>Video ingreso Contactos</t>
-  </si>
-  <si>
     <t>Intermedia</t>
   </si>
   <si>
@@ -316,13 +241,166 @@
     <t>Disponer manual de usuario de creación de elemento Eventos</t>
   </si>
   <si>
-    <t>Disponer manual de usuario de creación de elemento Contactos</t>
-  </si>
-  <si>
     <t>Usuario podrá visualizar la información de cada proyecto y información relacionada</t>
   </si>
   <si>
-    <t>En espera de aprobación</t>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Aprobación</t>
+  </si>
+  <si>
+    <t>Video ingreso Proyectos</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario de creación de elemento Proyectos</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario de creación de elemento Autoridades</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>HU3</t>
+  </si>
+  <si>
+    <t>HU4</t>
+  </si>
+  <si>
+    <t>HU5</t>
+  </si>
+  <si>
+    <t>HU6</t>
+  </si>
+  <si>
+    <t>HU7</t>
+  </si>
+  <si>
+    <t>HU8</t>
+  </si>
+  <si>
+    <t>Video ingreso Autoridades</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Ingresar información de Autoridades</t>
+  </si>
+  <si>
+    <t>Usuario podrá visualizar la información de Autoridades</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Autoridades</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Video1</t>
+  </si>
+  <si>
+    <t>Video2</t>
+  </si>
+  <si>
+    <t>Video3</t>
+  </si>
+  <si>
+    <t>Video4</t>
+  </si>
+  <si>
+    <t>HU9</t>
+  </si>
+  <si>
+    <t>Ingreso de eventos programados</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Bárbara</t>
+  </si>
+  <si>
+    <t>HU3-1</t>
+  </si>
+  <si>
+    <t>HU3-2</t>
+  </si>
+  <si>
+    <t>HU3-4</t>
+  </si>
+  <si>
+    <t>HU3-3</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Ingreso información de Autoridades</t>
+  </si>
+  <si>
+    <t>Elaboración Video ingreso Docente</t>
+  </si>
+  <si>
+    <t>Elaboración Video ingreso Eventos</t>
+  </si>
+  <si>
+    <t>Elaboración Video ingreso Autoridades</t>
+  </si>
+  <si>
+    <t>Elaboración Video ingreso Proyectos</t>
+  </si>
+  <si>
+    <t>HU3-5</t>
+  </si>
+  <si>
+    <t>Ingreso proyectos al sistema</t>
+  </si>
+  <si>
+    <t>Elaboración plantilla proyectos de Investigación asignados</t>
+  </si>
+  <si>
+    <t>Elaboración plantilla proyectos de Vinculación asignados</t>
+  </si>
+  <si>
+    <t>HU5-1</t>
+  </si>
+  <si>
+    <t>HU5-2</t>
+  </si>
+  <si>
+    <t>HU5-3</t>
+  </si>
+  <si>
+    <t>Elaboracion Banners asignados</t>
+  </si>
+  <si>
+    <t>Ingreso Banners al sistema</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Administradorsuario</t>
+  </si>
+  <si>
+    <t>Administradorrio</t>
+  </si>
+  <si>
+    <t>Visualizar la información de proyectos</t>
+  </si>
+  <si>
+    <t>Disponer manual de usuario</t>
   </si>
 </sst>
 </file>
@@ -409,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,25 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,8 +518,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -537,7 +609,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -546,54 +633,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -783,9 +827,70 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -796,73 +901,17 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -871,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,73 +958,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,26 +994,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,6 +1060,132 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1095,24 +1270,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1143,24 +1300,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1200,24 +1339,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1248,24 +1369,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1305,24 +1408,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1356,24 +1441,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1389,24 +1456,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1662,7 +1711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurnDown1Table!$B$2</c:f>
+              <c:f>BurnDown2Table!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1697,10 +1746,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$18</c:f>
+              <c:f>BurnDown2Table!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1733,77 +1782,47 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$B$3:$B$18</c:f>
+              <c:f>BurnDown2Table!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1821,7 +1840,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurnDown1Table!$C$2</c:f>
+              <c:f>BurnDown2Table!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1862,10 +1881,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$18</c:f>
+              <c:f>BurnDown2Table!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1898,78 +1917,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$C$3:$C$18</c:f>
+              <c:f>BurnDown2Table!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4608695652173913</c:v>
+                  <c:v>26.435555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9217391304347826</c:v>
+                  <c:v>24.871111111111112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.3826086956521735</c:v>
+                  <c:v>23.306666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.8434782608695652</c:v>
+                  <c:v>21.742222222222225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.304347826086957</c:v>
+                  <c:v>20.177777777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.765217391304347</c:v>
+                  <c:v>18.613333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.226086956521739</c:v>
+                  <c:v>17.048888888888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.68695652173913</c:v>
+                  <c:v>15.484444444444446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.147826086956522</c:v>
+                  <c:v>13.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-16.069565217391304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-17.530434782608694</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-18.991304347826087</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-20.452173913043477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-21.913043478260871</c:v>
+                  <c:v>12.355555555555558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,7 +1975,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurnDown1Table!$D$2</c:f>
+              <c:f>BurnDown2Table!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2035,10 +2024,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$18</c:f>
+              <c:f>BurnDown2Table!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2071,77 +2060,47 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$D$3:$D$18</c:f>
+              <c:f>BurnDown2Table!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2947,37 +2906,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G17" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7">
       <calculatedColumnFormula>Table3[[#This Row],[Target Burn Down]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3248,201 +3207,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="55.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="36" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="H2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="71" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="E8" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="72" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="D9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="H9" s="42" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3453,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3467,25 +3477,25 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>10</v>
@@ -3497,270 +3507,744 @@
         <v>24</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
-        <v>45</v>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="44"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="32">
+        <f>SUM(I4:I4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="51">
-        <f>SUM(I4:I8)</f>
-        <v>0</v>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="63">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="32">
+        <f>SUM(I8:I12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="17"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="32">
+        <f>SUM(I16:I16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="17"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="32">
+        <f>SUM(I20:I22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="17"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="32">
+        <f>SUM(I26:I26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="17"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="32">
+        <f>SUM(I30:I30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="17"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="32">
+        <f>SUM(I34:I34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="32">
+        <f>SUM(I38:I38)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="H41" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="30">
+        <f>SUM(I39,I35,I31,I27,I23,I17,I13,I5)</f>
         <v>28</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="45"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="51">
-        <f>SUM(I13:I17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="H19" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="49">
-        <f>I9+I18</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
+  <mergeCells count="22">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3798,7 +4282,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
-        <v>44617</v>
+        <v>44610</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3810,7 +4294,7 @@
       </c>
       <c r="B4" s="3">
         <f>NETWORKDAYS(B2,B3)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3831,7 +4315,7 @@
       </c>
       <c r="B6" s="3">
         <f>B4-B5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -3849,7 +4333,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -3861,7 +4345,7 @@
       </c>
       <c r="B9" s="3">
         <f>(B4-B5)*B8*B7*8</f>
-        <v>33.6</v>
+        <v>28.159999999999997</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -3871,7 +4355,7 @@
       </c>
       <c r="B10" s="3">
         <f>IFERROR(B9/B4,0)</f>
-        <v>1.4608695652173913</v>
+        <v>1.5644444444444443</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3907,10 +4391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3950,211 +4434,371 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <f>IFERROR(B2+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F3" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B12" si="0">IFERROR(B3+1,1)</f>
+        <f t="shared" ref="B4:B9" si="0">IFERROR(B3+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
       <c r="D4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="F4" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F5" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="F6" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="57">
-        <v>1</v>
+      <c r="A7" s="34">
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="57">
+      <c r="C7" s="35">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="34">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="59"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="65">
+        <f t="shared" ref="B10:B16" si="1">IFERROR(B9+1,1)</f>
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="33">
+        <v>2</v>
+      </c>
       <c r="D10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+        <v>98</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="12">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="65">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="12">
+        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="65">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="56"/>
       <c r="D12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F12" s="12">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="66">
+        <v>2</v>
+      </c>
+      <c r="B13" s="65">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="66">
+        <v>2</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="66">
+        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="66">
+        <v>2</v>
+      </c>
+      <c r="B14" s="65">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="66">
+        <v>2</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="66">
+        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="66">
+        <v>2</v>
+      </c>
+      <c r="B15" s="65">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="68">
+        <v>2</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="67">
+        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="66">
+        <v>2</v>
+      </c>
+      <c r="B16" s="65">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="68">
+        <v>3</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="67">
+        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Estimated Hours])</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Remaining Hours])</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"In Progress, Completed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4167,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4201,15 +4845,15 @@
       </c>
       <c r="B3" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C3" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D3" s="15">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -4219,15 +4863,14 @@
       </c>
       <c r="B4" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="C4" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-1.4608695652173913</v>
-      </c>
-      <c r="D4" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>26.435555555555556</v>
+      </c>
+      <c r="D4" s="37">
+        <v>27</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -4237,15 +4880,14 @@
       </c>
       <c r="B5" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="C5" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-2.9217391304347826</v>
-      </c>
-      <c r="D5" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>24.871111111111112</v>
+      </c>
+      <c r="D5" s="37">
+        <v>25</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -4255,15 +4897,14 @@
       </c>
       <c r="B6" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C6" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-4.3826086956521735</v>
-      </c>
-      <c r="D6" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>23.306666666666665</v>
+      </c>
+      <c r="D6" s="37">
+        <v>21</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -4273,15 +4914,14 @@
       </c>
       <c r="B7" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="C7" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-5.8434782608695652</v>
-      </c>
-      <c r="D7" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>21.742222222222225</v>
+      </c>
+      <c r="D7" s="37">
+        <v>18</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -4291,15 +4931,14 @@
       </c>
       <c r="B8" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-7.304347826086957</v>
-      </c>
-      <c r="D8" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>20.177777777777777</v>
+      </c>
+      <c r="D8" s="37">
+        <v>13</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -4309,15 +4948,14 @@
       </c>
       <c r="B9" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="C9" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-8.765217391304347</v>
-      </c>
-      <c r="D9" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>18.613333333333333</v>
+      </c>
+      <c r="D9" s="37">
+        <v>8</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -4327,15 +4965,14 @@
       </c>
       <c r="B10" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="C10" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-10.226086956521739</v>
-      </c>
-      <c r="D10" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>17.048888888888889</v>
+      </c>
+      <c r="D10" s="37">
+        <v>5</v>
       </c>
       <c r="E10" s="15"/>
     </row>
@@ -4345,15 +4982,14 @@
       </c>
       <c r="B11" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="C11" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-11.68695652173913</v>
-      </c>
-      <c r="D11" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>15.484444444444446</v>
+      </c>
+      <c r="D11" s="37">
+        <v>3</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -4363,15 +4999,14 @@
       </c>
       <c r="B12" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="C12" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-13.147826086956522</v>
-      </c>
-      <c r="D12" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
+        <v>13.920000000000002</v>
+      </c>
+      <c r="D12" s="37">
+        <v>2</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -4385,98 +5020,12 @@
       </c>
       <c r="C13" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-14.608695652173914</v>
-      </c>
-      <c r="D13" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
+        <v>12.355555555555558</v>
+      </c>
+      <c r="D13" s="37">
         <v>0</v>
       </c>
       <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-16.069565217391304</v>
-      </c>
-      <c r="D14" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-17.530434782608694</v>
-      </c>
-      <c r="D15" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-18.991304347826087</v>
-      </c>
-      <c r="D16" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-20.452173913043477</v>
-      </c>
-      <c r="D17" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>-21.913043478260871</v>
-      </c>
-      <c r="D18" s="60">
-        <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
